--- a/mf-intelligence/data/separated_files/nippon/Nippon India Balanced Advantage Fund/Nippon India Balanced Advantage Fund_Nov_2025.xlsx
+++ b/mf-intelligence/data/separated_files/nippon/Nippon India Balanced Advantage Fund/Nippon India Balanced Advantage Fund_Nov_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H197"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Industry / Rating</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -3167,839 +3167,833 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>GOI5713</t>
+          <t>NBAR838</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>IN0020240019</t>
+          <t>INE261F08EO7</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>7.1% Government of India</t>
+          <t>7.48% National Bank For Agriculture and Rural Development**</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>12500000</v>
+        <v>12500</v>
       </c>
       <c r="F86" t="n">
-        <v>12924.99</v>
+        <v>12737.34</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0133</v>
+        <v>0.0131</v>
       </c>
       <c r="H86" t="n">
-        <v>0.066706</v>
+        <v>0.06695</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>GOI6978</t>
+          <t>SKRP20</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>IN1620250135</t>
+          <t>INE08BR07029</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>7.52% State Government Securities</t>
+          <t>8.08% Suryapet Khammam Road Pvt Ltd**</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CARE AAA</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>10000000</v>
+        <v>7500</v>
       </c>
       <c r="F87" t="n">
-        <v>10174.25</v>
+        <v>7255.01</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0104</v>
+        <v>0.0074</v>
       </c>
       <c r="H87" t="n">
-        <v>0.074488</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>GOI5721</t>
+          <t>SESA537</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>IN0020240027</t>
+          <t>INE205A08020</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>7.23% Government of India</t>
+          <t>9.5% Vedanta Limited**</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>ICRA AA</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>9000000</v>
+        <v>6500</v>
       </c>
       <c r="F88" t="n">
-        <v>9231.700000000001</v>
+        <v>6559.41</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0095</v>
+        <v>0.0067</v>
       </c>
       <c r="H88" t="n">
-        <v>0.070503</v>
+        <v>0.089139</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>GOI6226</t>
+          <t>HDBF322</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>IN0020240134</t>
+          <t>INE756I08256</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>6.92% Government of India</t>
+          <t>8.4% HDB Financial Services Limited**</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>8500000</v>
+        <v>5000</v>
       </c>
       <c r="F89" t="n">
-        <v>8491.84</v>
+        <v>5157.42</v>
       </c>
       <c r="G89" t="n">
-        <v>0.008699999999999999</v>
+        <v>0.0053</v>
       </c>
       <c r="H89" t="n">
-        <v>0.070505</v>
+        <v>0.07854999999999999</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>GOI5081</t>
+          <t>LTMR58</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>IN0020230036</t>
+          <t>INE128M08094</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>7.17% Government of India</t>
+          <t>7.55% L&amp;T Metro Rail (Hyderabad) Limited**</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA(CE)</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>5000000</v>
+        <v>5000</v>
       </c>
       <c r="F90" t="n">
-        <v>5186.1</v>
+        <v>5023.7</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0053</v>
+        <v>0.0052</v>
       </c>
       <c r="H90" t="n">
-        <v>0.062795</v>
+        <v>0.0746975</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>GOI7151</t>
+          <t>SUMM22</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>IN2120250229</t>
+          <t>INE507T07070</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>7.45% State Government Securities</t>
+          <t>7.4% Summit Digitel Infrastructure Limited**</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>5000000</v>
+        <v>450</v>
       </c>
       <c r="F91" t="n">
-        <v>5027.52</v>
+        <v>4566.11</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0052</v>
+        <v>0.0047</v>
       </c>
       <c r="H91" t="n">
-        <v>0.075265</v>
+        <v>0.070008</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>GOI5152</t>
+          <t>APTU20</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>IN0020230051</t>
+          <t>INE04MH07034</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>7.3% Government of India</t>
+          <t>9% Aptus Finance India Private Limited**</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CARE AA</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>5000000</v>
+        <v>5000</v>
       </c>
       <c r="F92" t="n">
-        <v>4999.01</v>
+        <v>4065.69</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0051</v>
+        <v>0.0042</v>
       </c>
       <c r="H92" t="n">
-        <v>0.07434499999999999</v>
+        <v>0.092802</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>GOI5228</t>
+          <t>TCHE76</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>IN0020230085</t>
+          <t>INE092A08071</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>7.18% Government of India</t>
+          <t>7.81% Tata Chemicals Limited**</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AA+</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>3500000</v>
+        <v>3000</v>
       </c>
       <c r="F93" t="n">
-        <v>3634.01</v>
+        <v>3026.26</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0037</v>
+        <v>0.0031</v>
       </c>
       <c r="H93" t="n">
-        <v>0.066439</v>
+        <v>0.072149</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>GOI4462</t>
+          <t>IPLT20</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>IN1520220022</t>
+          <t>INE0KZX07023</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>7.8% State Government Securities</t>
+          <t>8.6% Infopark Properties Limited**</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CARE AA-</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>2500000</v>
+        <v>3000</v>
       </c>
       <c r="F94" t="n">
-        <v>2600.18</v>
+        <v>3017.22</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0027</v>
+        <v>0.0031</v>
       </c>
       <c r="H94" t="n">
-        <v>0.071448</v>
+        <v>0.0723</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>GOI6019</t>
+          <t>IINF136</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>IN0020240118</t>
+          <t>INE530B07419</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>7.09% Government of India</t>
+          <t>9.8% IIFL Finance Limited**</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AA</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>2500000</v>
+        <v>3000</v>
       </c>
       <c r="F95" t="n">
-        <v>2434.47</v>
+        <v>3000.28</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0025</v>
+        <v>0.0031</v>
       </c>
       <c r="H95" t="n">
-        <v>0.074419</v>
+        <v>0.07893</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>GOI7006</t>
+          <t>SKRP21</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>IN1020250313</t>
+          <t>INE08BR07011</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>7.63% State Government Securities</t>
+          <t>8.28% Suryapet Khammam Road Pvt Ltd**</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CARE AAA</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1500000</v>
+        <v>3200</v>
       </c>
       <c r="F96" t="n">
-        <v>1544.14</v>
+        <v>2604.12</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0016</v>
+        <v>0.0027</v>
       </c>
       <c r="H96" t="n">
-        <v>0.07383099999999999</v>
+        <v>0.0825</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>GOI4962</t>
+          <t>RUPL50</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>IN0020220144</t>
+          <t>INE936D07182</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>7.29% Government of India</t>
+          <t>7.9% Jamnagar Utilities &amp; Power Private Limited**</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1359400</v>
+        <v>2500</v>
       </c>
       <c r="F97" t="n">
-        <v>1416.26</v>
+        <v>2561.71</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0015</v>
+        <v>0.0026</v>
       </c>
       <c r="H97" t="n">
-        <v>0.066534</v>
+        <v>0.068412</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>GOI5196</t>
+          <t>ICFP141</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>IN0020230077</t>
+          <t>INE896L07975</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>7.18% Government of India</t>
+          <t>9.95% IndoStar Capital Finance Limited**</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CARE AA-</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>1100000</v>
+        <v>2500</v>
       </c>
       <c r="F98" t="n">
-        <v>1129.38</v>
+        <v>2538.24</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0012</v>
+        <v>0.0026</v>
       </c>
       <c r="H98" t="n">
-        <v>0.06959</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>GOI1742</t>
+          <t>HEHO24</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>IN3120161135</t>
+          <t>INE800X07071</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>7.74% State Government Securities</t>
+          <t>8.5% Hero Housing Finance Limited**</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AA+</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>1000000</v>
+        <v>2500</v>
       </c>
       <c r="F99" t="n">
-        <v>1017.4</v>
+        <v>2515.66</v>
       </c>
       <c r="G99" t="n">
-        <v>0.001</v>
+        <v>0.0026</v>
       </c>
       <c r="H99" t="n">
-        <v>0.06327199999999999</v>
+        <v>0.080134</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>GOI7172</t>
+          <t>VFIP24</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>IN1020160231</t>
+          <t>INE08Z607091</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>7.35% State Government Securities</t>
+          <t>9.25% Vastu Finserve India Private Limited**</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>ICRA AA-</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>1000000</v>
+        <v>2500</v>
       </c>
       <c r="F100" t="n">
-        <v>1012.57</v>
+        <v>2507.68</v>
       </c>
       <c r="G100" t="n">
-        <v>0.001</v>
+        <v>0.0026</v>
       </c>
       <c r="H100" t="n">
-        <v>0.059396</v>
+        <v>0.09432400000000001</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>GOI1821</t>
+          <t>CENT241</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>IN3120161366</t>
+          <t>INE055A08037</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>7.9% State Government Securities</t>
+          <t>8.1% Aditya Birla Real Estate Limited**</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AA</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>500000</v>
+        <v>2500</v>
       </c>
       <c r="F101" t="n">
-        <v>510.33</v>
+        <v>2505.25</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0005</v>
+        <v>0.0026</v>
       </c>
       <c r="H101" t="n">
-        <v>0.06315999999999999</v>
+        <v>0.072601</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>GOI1725</t>
+          <t>MMFS1203</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>IN3120160327</t>
+          <t>INE774D08MY6</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>7.75% State Government Securities</t>
+          <t>8.3% Mahindra &amp; Mahindra Financial Services Limited**</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>500000</v>
+        <v>2280</v>
       </c>
       <c r="F102" t="n">
-        <v>508.76</v>
+        <v>2342.27</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0005</v>
+        <v>0.0024</v>
       </c>
       <c r="H102" t="n">
-        <v>0.06327199999999999</v>
+        <v>0.078642</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>GOI4068</t>
+          <t>TOPL39</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>IN3120210361</t>
+          <t>INE813H07259</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>7.03% State Government Securities</t>
+          <t>8.65% Torrent Power Limited**</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AA+</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>500000</v>
+        <v>200</v>
       </c>
       <c r="F103" t="n">
-        <v>506.87</v>
+        <v>2118.16</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0005</v>
+        <v>0.0022</v>
       </c>
       <c r="H103" t="n">
-        <v>0.067606</v>
+        <v>0.07455000000000001</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>GOI3607</t>
+          <t>MUFL424</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>IN0020210160</t>
+          <t>INE414G07JG7</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>6.22% Government of India</t>
+          <t>9.09% Muthoot Finance Limited**</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AA+</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>100000</v>
+        <v>2000</v>
       </c>
       <c r="F104" t="n">
-        <v>100.91</v>
+        <v>2069.58</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0001</v>
+        <v>0.0021</v>
       </c>
       <c r="H104" t="n">
-        <v>0.059561</v>
+        <v>0.07885</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>GOI964</t>
+          <t>CHOL1064</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>IN0020120062</t>
+          <t>INE121A08PP7</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>8.3% Government of India</t>
+          <t>9.1% Cholamandalam Investment and Finance Company Ltd**</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>ICRA AA+</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>18200</v>
+        <v>2000</v>
       </c>
       <c r="F105" t="n">
-        <v>20.55</v>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
+        <v>2063.93</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.0021</v>
       </c>
       <c r="H105" t="n">
-        <v>0.071127</v>
+        <v>0.08345</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>GOI5064</t>
+          <t>TELA21</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>IN2920220356</t>
+          <t>INE1C3207081</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>7.84% State Government Securities</t>
+          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited**</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>4400</v>
+        <v>1500</v>
       </c>
       <c r="F106" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
+        <v>1522.32</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.0016</v>
       </c>
       <c r="H106" t="n">
-        <v>0.07532</v>
+        <v>0.090127</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>GOI3725</t>
+          <t>ICFP147</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>IN3120210296</t>
+          <t>INE896L07983</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>7.04% State Government Securities</t>
+          <t>10.5% IndoStar Capital Finance Limited**</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CARE AA-</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>400</v>
+        <v>150000</v>
       </c>
       <c r="F107" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
+        <v>1520.44</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.0016</v>
       </c>
       <c r="H107" t="n">
-        <v>0.067606</v>
+        <v>0.08550000000000001</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>NBAR838</t>
+          <t>TELA20</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>INE261F08EO7</t>
+          <t>INE1C3207057</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>7.48% National Bank For Agriculture and Rural Development**</t>
+          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited**</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>12500</v>
+        <v>1500</v>
       </c>
       <c r="F108" t="n">
-        <v>12737.34</v>
+        <v>1517.29</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0131</v>
+        <v>0.0016</v>
       </c>
       <c r="H108" t="n">
-        <v>0.06695</v>
+        <v>0.088931</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SKRP20</t>
+          <t>NIMA374</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>INE08BR07029</t>
+          <t>INE091A07208</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>8.08% Suryapet Khammam Road Pvt Ltd**</t>
+          <t>8.5% Nirma Limited**</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>CARE AAA</t>
+          <t>CRISIL AA</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>7500</v>
+        <v>1500</v>
       </c>
       <c r="F109" t="n">
-        <v>7255.01</v>
+        <v>1516.86</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0074</v>
+        <v>0.0016</v>
       </c>
       <c r="H109" t="n">
-        <v>0.082</v>
+        <v>0.0746</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SESA537</t>
+          <t>SESA536</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>INE205A08020</t>
+          <t>INE205A08038</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>9.5% Vedanta Limited**</t>
+          <t>9.4% Vedanta Limited**</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4008,304 +4002,304 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>6500</v>
+        <v>1500</v>
       </c>
       <c r="F110" t="n">
-        <v>6559.41</v>
+        <v>1507.57</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0067</v>
+        <v>0.0015</v>
       </c>
       <c r="H110" t="n">
-        <v>0.089139</v>
+        <v>0.08903949999999999</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>HDBF322</t>
+          <t>VLFP30</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>INE756I08256</t>
+          <t>INE321N07533</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>8.4% HDB Financial Services Limited**</t>
+          <t>9.5% Incred Financial Services Limited**</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>CRISIL AA-</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="F111" t="n">
-        <v>5157.42</v>
+        <v>1506.81</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0053</v>
+        <v>0.0015</v>
       </c>
       <c r="H111" t="n">
-        <v>0.07854999999999999</v>
+        <v>0.094899</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>LTMR58</t>
+          <t>JVSL215</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>INE128M08094</t>
+          <t>INE019A08033</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>7.55% L&amp;T Metro Rail (Hyderabad) Limited**</t>
+          <t>8.25% JSW Steel Limited**</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>CRISIL AAA(CE)</t>
+          <t>ICRA AA</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>5000</v>
+        <v>150</v>
       </c>
       <c r="F112" t="n">
-        <v>5023.7</v>
+        <v>1501.11</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0052</v>
+        <v>0.0015</v>
       </c>
       <c r="H112" t="n">
-        <v>0.0746975</v>
+        <v>0.06510199999999999</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SUMM22</t>
+          <t>SESA539</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>INE507T07070</t>
+          <t>INE205A08053</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>7.4% Summit Digitel Infrastructure Limited**</t>
+          <t>9.45% Vedanta Limited**</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>CRISIL AA</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>450</v>
+        <v>1400</v>
       </c>
       <c r="F113" t="n">
-        <v>4566.11</v>
+        <v>1414.37</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0047</v>
+        <v>0.0015</v>
       </c>
       <c r="H113" t="n">
-        <v>0.070008</v>
+        <v>0.08928899999999999</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>APTU20</t>
+          <t>IIFC67</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>INE04MH07034</t>
+          <t>INE787H08154</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>9% Aptus Finance India Private Limited**</t>
+          <t>7.47% India Infrastructure Fin Co Ltd**</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CARE AA</t>
+          <t>CARE AAA</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="F114" t="n">
-        <v>4065.69</v>
+        <v>1014.4</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0042</v>
+        <v>0.001</v>
       </c>
       <c r="H114" t="n">
-        <v>0.092802</v>
+        <v>0.066425</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>TCHE76</t>
+          <t>IINF141</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>INE092A08071</t>
+          <t>INE530B07450</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>7.81% Tata Chemicals Limited**</t>
+          <t>9.9% IIFL Finance Limited**</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>CRISIL AA+</t>
+          <t>CRISIL AA</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F115" t="n">
-        <v>3026.26</v>
+        <v>1003.8</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0031</v>
+        <v>0.001</v>
       </c>
       <c r="H115" t="n">
-        <v>0.072149</v>
+        <v>0.08935</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>IPLT20</t>
+          <t>ICFP137</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>INE0KZX07023</t>
+          <t>INE896L07934</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>8.6% Infopark Properties Limited**</t>
+          <t>9.85% IndoStar Capital Finance Limited**</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>CARE AA-</t>
+          <t>CRISIL AA-</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="F116" t="n">
-        <v>3017.22</v>
+        <v>606.42</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0031</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="H116" t="n">
-        <v>0.0723</v>
+        <v>0.08550000000000001</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>IINF136</t>
+          <t>NBAR772</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>INE530B07419</t>
+          <t>INE261F08EH1</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>9.8% IIFL Finance Limited**</t>
+          <t>7.62% National Bank For Agriculture and Rural Development**</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>CRISIL AA</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="F117" t="n">
-        <v>3000.28</v>
+        <v>512.89</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0031</v>
+        <v>0.0005</v>
       </c>
       <c r="H117" t="n">
-        <v>0.07893</v>
+        <v>0.06734999999999999</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SKRP21</t>
+          <t>CENT245</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>INE08BR07011</t>
+          <t>INE055A08060</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>8.28% Suryapet Khammam Road Pvt Ltd**</t>
+          <t>8.55% Aditya Birla Real Estate Limited**</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>CARE AAA</t>
+          <t>CRISIL AA</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>3200</v>
+        <v>500</v>
       </c>
       <c r="F118" t="n">
-        <v>2604.12</v>
+        <v>511.49</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0027</v>
+        <v>0.0005</v>
       </c>
       <c r="H118" t="n">
-        <v>0.0825</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>RUPL50</t>
+          <t>POWF411</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>INE936D07182</t>
+          <t>INE134E08JP5</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>7.9% Jamnagar Utilities &amp; Power Private Limited**</t>
+          <t>7.85% Power Finance Corporation Limited**</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4314,217 +4308,217 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="F119" t="n">
-        <v>2561.71</v>
+        <v>411.27</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0026</v>
+        <v>0.0004</v>
       </c>
       <c r="H119" t="n">
-        <v>0.068412</v>
+        <v>0.066315</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ICFP141</t>
+          <t>GOSL303</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>INE896L07975</t>
+          <t>INE233A08063</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>9.95% IndoStar Capital Finance Limited**</t>
+          <t>8.35% Godrej Industries Limited**</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>CARE AA-</t>
+          <t>CRISIL AA+</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="F120" t="n">
-        <v>2538.24</v>
+        <v>400.21</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0026</v>
+        <v>0.0004</v>
       </c>
       <c r="H120" t="n">
-        <v>0.0859</v>
+        <v>0.06264400000000001</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>HEHO24</t>
+          <t>RECL436</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>INE800X07071</t>
+          <t>INE020B08EL2</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>8.5% Hero Housing Finance Limited**</t>
+          <t>7.44% REC Limited**</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>CRISIL AA+</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="F121" t="n">
-        <v>2515.66</v>
+        <v>300.96</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0026</v>
+        <v>0.0003</v>
       </c>
       <c r="H121" t="n">
-        <v>0.080134</v>
+        <v>0.06435</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>VFIP24</t>
+          <t>BHFL92</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>INE08Z607091</t>
+          <t>INE377Y07359</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>9.25% Vastu Finserve India Private Limited**</t>
+          <t>7.89% Bajaj Housing Finance Limited**</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>ICRA AA-</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>2500</v>
+        <v>20</v>
       </c>
       <c r="F122" t="n">
-        <v>2507.68</v>
+        <v>206.86</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0026</v>
+        <v>0.0002</v>
       </c>
       <c r="H122" t="n">
-        <v>0.09432400000000001</v>
+        <v>0.072225</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>CENT241</t>
+          <t>NHIT23</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>INE055A08037</t>
+          <t>INE0H7R07066</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>8.1% Aditya Birla Real Estate Limited**</t>
+          <t>National Highways Infra Trust**</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>CRISIL AA</t>
+          <t>CARE AAA</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>2500</v>
+        <v>6250</v>
       </c>
       <c r="F123" t="n">
-        <v>2505.25</v>
+        <v>3468.24</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0026</v>
+        <v>0.0036</v>
       </c>
       <c r="H123" t="n">
-        <v>0.072601</v>
+        <v>0.07480000000000001</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MMFS1203</t>
+          <t>JTMT20</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>INE774D08MY6</t>
+          <t>INE02PE08036</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>8.3% Mahindra &amp; Mahindra Financial Services Limited**</t>
+          <t>JTPM Metal Traders Limited**</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>CRISIL AA</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>2280</v>
+        <v>2000</v>
       </c>
       <c r="F124" t="n">
-        <v>2342.27</v>
+        <v>2055.42</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0024</v>
+        <v>0.0021</v>
       </c>
       <c r="H124" t="n">
-        <v>0.078642</v>
+        <v>0.07992</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>TOPL39</t>
+          <t>NHIT24</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>INE813H07259</t>
+          <t>INE0H7R07058</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>8.65% Torrent Power Limited**</t>
+          <t>National Highways Infra Trust**</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>CRISIL AA+</t>
+          <t>CARE AAA</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="F125" t="n">
-        <v>2118.16</v>
+        <v>1293.5</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0022</v>
+        <v>0.0013</v>
       </c>
       <c r="H125" t="n">
         <v>0.07455000000000001</v>
@@ -4533,2172 +4527,102 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>MUFL424</t>
+          <t>SAEL21PS</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>INE414G07JG7</t>
+          <t>INE494B04019</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>9.09% Muthoot Finance Limited**</t>
+          <t>TVS Motor Company Limited Preference Shares**</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>CRISIL AA+</t>
+          <t>CARE A1+</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>2000</v>
+        <v>1100000</v>
       </c>
       <c r="F126" t="n">
-        <v>2069.58</v>
+        <v>111.55</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0021</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0.07885</v>
-      </c>
+        <v>0.0001</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>CHOL1064</t>
+          <t>LIGS22</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>INE121A08PP7</t>
+          <t>INE1U3R15011</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>9.1% Cholamandalam Investment and Finance Company Ltd**</t>
+          <t>Liquid Gold Series**</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>ICRA AA+</t>
+          <t>CRISIL AAA(SO)</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>2000</v>
+        <v>165.999998</v>
       </c>
       <c r="F127" t="n">
-        <v>2063.93</v>
+        <v>2934.39</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0021</v>
+        <v>0.003</v>
       </c>
       <c r="H127" t="n">
-        <v>0.08345</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>TELA21</t>
+          <t>IUNT23</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>INE1C3207081</t>
+          <t>INE1CBK15011</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited**</t>
+          <t>India Universal Trust**</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>FITCH AA(CE)</t>
+          <t>CRISIL AAA(SO)</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1500</v>
+        <v>49.999999</v>
       </c>
       <c r="F128" t="n">
-        <v>1522.32</v>
+        <v>2032.58</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0016</v>
+        <v>0.0021</v>
       </c>
       <c r="H128" t="n">
-        <v>0.090127</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>ICFP147</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>INE896L07983</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>10.5% IndoStar Capital Finance Limited**</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>CARE AA-</t>
-        </is>
-      </c>
-      <c r="E129" t="n">
-        <v>150000</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1520.44</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.0016</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0.08550000000000001</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>TELA20</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>INE1C3207057</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited**</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>FITCH AA(CE)</t>
-        </is>
-      </c>
-      <c r="E130" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1517.29</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0.0016</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0.088931</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>NIMA374</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>INE091A07208</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>8.5% Nirma Limited**</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>CRISIL AA</t>
-        </is>
-      </c>
-      <c r="E131" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1516.86</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0.0016</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0.0746</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>SESA536</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>INE205A08038</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>9.4% Vedanta Limited**</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>ICRA AA</t>
-        </is>
-      </c>
-      <c r="E132" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1507.57</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0.08903949999999999</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>VLFP30</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>INE321N07533</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>9.5% Incred Financial Services Limited**</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>CRISIL AA-</t>
-        </is>
-      </c>
-      <c r="E133" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1506.81</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0.094899</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>JVSL215</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>INE019A08033</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>8.25% JSW Steel Limited**</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>ICRA AA</t>
-        </is>
-      </c>
-      <c r="E134" t="n">
-        <v>150</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1501.11</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0.06510199999999999</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>SESA539</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>INE205A08053</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>9.45% Vedanta Limited**</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>CRISIL AA</t>
-        </is>
-      </c>
-      <c r="E135" t="n">
-        <v>1400</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1414.37</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0.08928899999999999</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>IIFC67</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>INE787H08154</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>7.47% India Infrastructure Fin Co Ltd**</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>CARE AAA</t>
-        </is>
-      </c>
-      <c r="E136" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1014.4</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0.066425</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>IINF141</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>INE530B07450</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>9.9% IIFL Finance Limited**</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>CRISIL AA</t>
-        </is>
-      </c>
-      <c r="E137" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1003.8</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0.08935</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>ICFP137</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>INE896L07934</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>9.85% IndoStar Capital Finance Limited**</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>CRISIL AA-</t>
-        </is>
-      </c>
-      <c r="E138" t="n">
-        <v>600</v>
-      </c>
-      <c r="F138" t="n">
-        <v>606.42</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0.08550000000000001</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>NBAR772</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>INE261F08EH1</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>7.62% National Bank For Agriculture and Rural Development**</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>CRISIL AAA</t>
-        </is>
-      </c>
-      <c r="E139" t="n">
-        <v>500</v>
-      </c>
-      <c r="F139" t="n">
-        <v>512.89</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0.06734999999999999</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>CENT245</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>INE055A08060</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>8.55% Aditya Birla Real Estate Limited**</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>CRISIL AA</t>
-        </is>
-      </c>
-      <c r="E140" t="n">
-        <v>500</v>
-      </c>
-      <c r="F140" t="n">
-        <v>511.49</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0.078</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>POWF411</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>INE134E08JP5</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>7.85% Power Finance Corporation Limited**</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>CRISIL AAA</t>
-        </is>
-      </c>
-      <c r="E141" t="n">
-        <v>40</v>
-      </c>
-      <c r="F141" t="n">
-        <v>411.27</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0.066315</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>GOSL303</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>INE233A08063</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>8.35% Godrej Industries Limited**</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>CRISIL AA+</t>
-        </is>
-      </c>
-      <c r="E142" t="n">
-        <v>400</v>
-      </c>
-      <c r="F142" t="n">
-        <v>400.21</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0.06264400000000001</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>RECL436</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>INE020B08EL2</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>7.44% REC Limited**</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>CRISIL AAA</t>
-        </is>
-      </c>
-      <c r="E143" t="n">
-        <v>300</v>
-      </c>
-      <c r="F143" t="n">
-        <v>300.96</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0.06435</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>BHFL92</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>INE377Y07359</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>7.89% Bajaj Housing Finance Limited**</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>CRISIL AAA</t>
-        </is>
-      </c>
-      <c r="E144" t="n">
-        <v>20</v>
-      </c>
-      <c r="F144" t="n">
-        <v>206.86</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0.072225</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>NHIT23</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>INE0H7R07066</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>National Highways Infra Trust**</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>CARE AAA</t>
-        </is>
-      </c>
-      <c r="E145" t="n">
-        <v>6250</v>
-      </c>
-      <c r="F145" t="n">
-        <v>3468.24</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0.0036</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0.07480000000000001</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>JTMT20</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>INE02PE08036</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>JTPM Metal Traders Limited**</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>CRISIL AA</t>
-        </is>
-      </c>
-      <c r="E146" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F146" t="n">
-        <v>2055.42</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0.0021</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0.07992</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>NHIT24</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>INE0H7R07058</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>National Highways Infra Trust**</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>CARE AAA</t>
-        </is>
-      </c>
-      <c r="E147" t="n">
-        <v>2500</v>
-      </c>
-      <c r="F147" t="n">
-        <v>1293.5</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0.07455000000000001</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>SAEL21PS</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>INE494B04019</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>TVS Motor Company Limited Preference Shares**</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>CARE A1+</t>
-        </is>
-      </c>
-      <c r="E148" t="n">
-        <v>1100000</v>
-      </c>
-      <c r="F148" t="n">
-        <v>111.55</v>
-      </c>
-      <c r="G148" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="H148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>LIGS22</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>INE1U3R15011</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Liquid Gold Series**</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>CRISIL AAA(SO)</t>
-        </is>
-      </c>
-      <c r="E149" t="n">
-        <v>165.999998</v>
-      </c>
-      <c r="F149" t="n">
-        <v>2934.39</v>
-      </c>
-      <c r="G149" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0.091</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>IUNT23</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>INE1CBK15011</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>India Universal Trust**</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>CRISIL AAA(SO)</t>
-        </is>
-      </c>
-      <c r="E150" t="n">
-        <v>49.999999</v>
-      </c>
-      <c r="F150" t="n">
-        <v>2032.58</v>
-      </c>
-      <c r="G150" t="n">
-        <v>0.0021</v>
-      </c>
-      <c r="H150" t="n">
         <v>0.07215000000000001</v>
       </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>147579</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>INF204KB15D0</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Nippon India ETF BSE Sensex Next 50</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="n">
-        <v>3368092</v>
-      </c>
-      <c r="F151" t="n">
-        <v>3095.95</v>
-      </c>
-      <c r="G151" t="n">
-        <v>0.0032</v>
-      </c>
-      <c r="H151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr"/>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Long/Short</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Name of the Instrument</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Industry</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>Quantity.</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Market/Fair Value (Rs. in Lacs).</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> % to NAV.</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr"/>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>HDFC Bank Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E153" t="n">
-        <v>641300</v>
-      </c>
-      <c r="F153" t="n">
-        <v>6499.9</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0.0067</v>
-      </c>
-      <c r="H153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr"/>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>ICICI Bank Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E154" t="n">
-        <v>372400</v>
-      </c>
-      <c r="F154" t="n">
-        <v>5196.1</v>
-      </c>
-      <c r="G154" t="n">
-        <v>0.0053</v>
-      </c>
-      <c r="H154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr"/>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Bharti Airtel Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Telecom - Services</t>
-        </is>
-      </c>
-      <c r="E155" t="n">
-        <v>242250</v>
-      </c>
-      <c r="F155" t="n">
-        <v>5123.83</v>
-      </c>
-      <c r="G155" t="n">
-        <v>0.0053</v>
-      </c>
-      <c r="H155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr"/>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Axis Bank Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E156" t="n">
-        <v>381875</v>
-      </c>
-      <c r="F156" t="n">
-        <v>4912.44</v>
-      </c>
-      <c r="G156" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr"/>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Infosys Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>IT - Software</t>
-        </is>
-      </c>
-      <c r="E157" t="n">
-        <v>288400</v>
-      </c>
-      <c r="F157" t="n">
-        <v>4508.27</v>
-      </c>
-      <c r="G157" t="n">
-        <v>0.0046</v>
-      </c>
-      <c r="H157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr"/>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Larsen &amp; Toubro Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Construction</t>
-        </is>
-      </c>
-      <c r="E158" t="n">
-        <v>105350</v>
-      </c>
-      <c r="F158" t="n">
-        <v>4316.4</v>
-      </c>
-      <c r="G158" t="n">
-        <v>0.0044</v>
-      </c>
-      <c r="H158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr"/>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Reliance Industries Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Petroleum Products</t>
-        </is>
-      </c>
-      <c r="E159" t="n">
-        <v>272500</v>
-      </c>
-      <c r="F159" t="n">
-        <v>4295.96</v>
-      </c>
-      <c r="G159" t="n">
-        <v>0.0044</v>
-      </c>
-      <c r="H159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr"/>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>ITC Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Diversified FMCG</t>
-        </is>
-      </c>
-      <c r="E160" t="n">
-        <v>937600</v>
-      </c>
-      <c r="F160" t="n">
-        <v>3809.47</v>
-      </c>
-      <c r="G160" t="n">
-        <v>0.0039</v>
-      </c>
-      <c r="H160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr"/>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Mahindra &amp; Mahindra Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Automobiles</t>
-        </is>
-      </c>
-      <c r="E161" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F161" t="n">
-        <v>3783.4</v>
-      </c>
-      <c r="G161" t="n">
-        <v>0.0039</v>
-      </c>
-      <c r="H161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr"/>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Grasim Industries Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Cement &amp; Cement Products</t>
-        </is>
-      </c>
-      <c r="E162" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F162" t="n">
-        <v>2754.8</v>
-      </c>
-      <c r="G162" t="n">
-        <v>0.0028</v>
-      </c>
-      <c r="H162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr"/>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>NTPC Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="E163" t="n">
-        <v>798000</v>
-      </c>
-      <c r="F163" t="n">
-        <v>2622.63</v>
-      </c>
-      <c r="G163" t="n">
-        <v>0.0027</v>
-      </c>
-      <c r="H163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr"/>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Eicher Motors Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Automobiles</t>
-        </is>
-      </c>
-      <c r="E164" t="n">
-        <v>29225</v>
-      </c>
-      <c r="F164" t="n">
-        <v>2071.47</v>
-      </c>
-      <c r="G164" t="n">
-        <v>0.0021</v>
-      </c>
-      <c r="H164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr"/>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>SBI Life Insurance Company Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="E165" t="n">
-        <v>85125</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1684.11</v>
-      </c>
-      <c r="G165" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="H165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr"/>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Samvardhana Motherson International Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Auto Components</t>
-        </is>
-      </c>
-      <c r="E166" t="n">
-        <v>1402200</v>
-      </c>
-      <c r="F166" t="n">
-        <v>1638.47</v>
-      </c>
-      <c r="G166" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="H166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr"/>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Eternal Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Retailing</t>
-        </is>
-      </c>
-      <c r="E167" t="n">
-        <v>540775</v>
-      </c>
-      <c r="F167" t="n">
-        <v>1634.49</v>
-      </c>
-      <c r="G167" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="H167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr"/>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>State Bank of India_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E168" t="n">
-        <v>164250</v>
-      </c>
-      <c r="F168" t="n">
-        <v>1618.11</v>
-      </c>
-      <c r="G168" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="H168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr"/>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>HDFC Life Insurance Company Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="E169" t="n">
-        <v>205700</v>
-      </c>
-      <c r="F169" t="n">
-        <v>1581.63</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0.0016</v>
-      </c>
-      <c r="H169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr"/>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Bajaj Finance Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E170" t="n">
-        <v>144000</v>
-      </c>
-      <c r="F170" t="n">
-        <v>1501.63</v>
-      </c>
-      <c r="G170" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="H170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr"/>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Bharat Heavy Electricals Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Electrical Equipment</t>
-        </is>
-      </c>
-      <c r="E171" t="n">
-        <v>488250</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1426.67</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="H171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr"/>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Apollo Hospitals Enterprise Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>Healthcare Services</t>
-        </is>
-      </c>
-      <c r="E172" t="n">
-        <v>18375</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1357.27</v>
-      </c>
-      <c r="G172" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="H172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr"/>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Hindustan Aeronautics Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Aerospace &amp; Defense</t>
-        </is>
-      </c>
-      <c r="E173" t="n">
-        <v>29100</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1331.12</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="H173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr"/>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>CG Power and Industrial Solutions Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Electrical Equipment</t>
-        </is>
-      </c>
-      <c r="E174" t="n">
-        <v>195500</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1323.83</v>
-      </c>
-      <c r="G174" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="H174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr"/>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Tata Power Company Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="E175" t="n">
-        <v>329150</v>
-      </c>
-      <c r="F175" t="n">
-        <v>1292.57</v>
-      </c>
-      <c r="G175" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="H175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr"/>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Lupin Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
-      <c r="E176" t="n">
-        <v>60775</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1271.35</v>
-      </c>
-      <c r="G176" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="H176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr"/>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Jubilant Foodworks Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Leisure Services</t>
-        </is>
-      </c>
-      <c r="E177" t="n">
-        <v>197500</v>
-      </c>
-      <c r="F177" t="n">
-        <v>1195.86</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="H177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr"/>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>InterGlobe Aviation Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>Transport Services</t>
-        </is>
-      </c>
-      <c r="E178" t="n">
-        <v>19050</v>
-      </c>
-      <c r="F178" t="n">
-        <v>1127.57</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="H178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr"/>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Tata Steel Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>Ferrous Metals</t>
-        </is>
-      </c>
-      <c r="E179" t="n">
-        <v>594000</v>
-      </c>
-      <c r="F179" t="n">
-        <v>1004.69</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr"/>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Delhivery Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>Transport Services</t>
-        </is>
-      </c>
-      <c r="E180" t="n">
-        <v>215800</v>
-      </c>
-      <c r="F180" t="n">
-        <v>923.62</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="H180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr"/>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Hindustan Petroleum Corporation Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Petroleum Products</t>
-        </is>
-      </c>
-      <c r="E181" t="n">
-        <v>200475</v>
-      </c>
-      <c r="F181" t="n">
-        <v>921.1799999999999</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="H181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr"/>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Hindustan Unilever Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>Diversified FMCG</t>
-        </is>
-      </c>
-      <c r="E182" t="n">
-        <v>27300</v>
-      </c>
-      <c r="F182" t="n">
-        <v>675.35</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="H182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr"/>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Power Finance Corporation Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E183" t="n">
-        <v>180700</v>
-      </c>
-      <c r="F183" t="n">
-        <v>660.1</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="H183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr"/>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Kotak Mahindra Bank Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E184" t="n">
-        <v>27600</v>
-      </c>
-      <c r="F184" t="n">
-        <v>589.98</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="H184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr"/>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Jindal Steel Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Ferrous Metals</t>
-        </is>
-      </c>
-      <c r="E185" t="n">
-        <v>52500</v>
-      </c>
-      <c r="F185" t="n">
-        <v>552.35</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="H185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr"/>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>TVS Motor Company Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Automobiles</t>
-        </is>
-      </c>
-      <c r="E186" t="n">
-        <v>12600</v>
-      </c>
-      <c r="F186" t="n">
-        <v>448.13</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="H186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr"/>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Muthoot Finance Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E187" t="n">
-        <v>10175</v>
-      </c>
-      <c r="F187" t="n">
-        <v>383.68</v>
-      </c>
-      <c r="G187" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="H187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr"/>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Dalmia Bharat Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>Cement &amp; Cement Products</t>
-        </is>
-      </c>
-      <c r="E188" t="n">
-        <v>17225</v>
-      </c>
-      <c r="F188" t="n">
-        <v>348.24</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="H188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr"/>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Dixon Technologies (India) Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Consumer Durables</t>
-        </is>
-      </c>
-      <c r="E189" t="n">
-        <v>2200</v>
-      </c>
-      <c r="F189" t="n">
-        <v>322.7</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="H189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr"/>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Varun Beverages Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>Beverages</t>
-        </is>
-      </c>
-      <c r="E190" t="n">
-        <v>65600</v>
-      </c>
-      <c r="F190" t="n">
-        <v>318.09</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="H190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr"/>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Cummins India Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>Industrial Products</t>
-        </is>
-      </c>
-      <c r="E191" t="n">
-        <v>6600</v>
-      </c>
-      <c r="F191" t="n">
-        <v>296.77</v>
-      </c>
-      <c r="G191" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="H191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr"/>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>United Spirits Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>Beverages</t>
-        </is>
-      </c>
-      <c r="E192" t="n">
-        <v>20000</v>
-      </c>
-      <c r="F192" t="n">
-        <v>291.6</v>
-      </c>
-      <c r="G192" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="H192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr"/>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Prestige Estates Projects Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>Realty</t>
-        </is>
-      </c>
-      <c r="E193" t="n">
-        <v>17100</v>
-      </c>
-      <c r="F193" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="H193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr"/>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Britannia Industries Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Food Products</t>
-        </is>
-      </c>
-      <c r="E194" t="n">
-        <v>4250</v>
-      </c>
-      <c r="F194" t="n">
-        <v>250.09</v>
-      </c>
-      <c r="G194" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="H194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr"/>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>Tech Mahindra Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>IT - Software</t>
-        </is>
-      </c>
-      <c r="E195" t="n">
-        <v>15600</v>
-      </c>
-      <c r="F195" t="n">
-        <v>237.74</v>
-      </c>
-      <c r="G195" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="H195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr"/>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Biocon Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
-      <c r="E196" t="n">
-        <v>57500</v>
-      </c>
-      <c r="F196" t="n">
-        <v>230.32</v>
-      </c>
-      <c r="G196" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="H196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr"/>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>The Indian Hotels Company Limited_30/12/2025</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>Leisure Services</t>
-        </is>
-      </c>
-      <c r="E197" t="n">
-        <v>27000</v>
-      </c>
-      <c r="F197" t="n">
-        <v>201.84</v>
-      </c>
-      <c r="G197" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="H197" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
